--- a/rko/out/ip.xlsx
+++ b/rko/out/ip.xlsx
@@ -1,30 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Ps1\rko\out\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10245"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="21030" windowHeight="10245"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="158">
   <si>
     <t>№ Д/О</t>
   </si>
@@ -41,199 +33,235 @@
     <t>Дополнительный офис в г.Ишим</t>
   </si>
   <si>
+    <t>НОТАРИУС РАЧЕВ ВАЛЕРИЙ ВАСИЛЬЕВИЧ</t>
+  </si>
+  <si>
+    <t>40802810200020000013</t>
+  </si>
+  <si>
+    <t>ИП КУДИНА ЛАРИСА ГЕННАДЬЕВНА</t>
+  </si>
+  <si>
+    <t>40802810105020000875</t>
+  </si>
+  <si>
+    <t>АДВОКАТ ВОСТРЯКОВА ТАТЬЯНА ЕВГЕНЬЕВНА</t>
+  </si>
+  <si>
+    <t>40802810505020000051</t>
+  </si>
+  <si>
+    <t>МУТЬЕВА НАТАЛЬЯ СЕРГЕЕВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810705020000165</t>
+  </si>
+  <si>
+    <t>МУТЬЕВ ВАЛЕРИЙ НИКОЛАЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810005020000166</t>
+  </si>
+  <si>
+    <t>МИХНОВ ДЕНИС ВЛАДИМИРОВИЧ (НОТАРИУС)</t>
+  </si>
+  <si>
+    <t>40802810205020000241</t>
+  </si>
+  <si>
     <t>ПОНОМАРЕНКО ЮРИЙ ВИКТОРОВИЧ (ИП)</t>
   </si>
   <si>
     <t>40802810905020000279</t>
   </si>
   <si>
+    <t>ШАРАПОВА СВЕТЛАНА НИКОЛАЕВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810505020000637</t>
+  </si>
+  <si>
     <t>ПАВЛОВСКИЙ БОРИС НИКОЛАЕВИЧ (ИП)</t>
   </si>
   <si>
     <t>40802810605020000786</t>
   </si>
   <si>
-    <t>ЛИПСКИЙ ЕВГЕНИЙ ВЛАДИМИРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810300020000793</t>
-  </si>
-  <si>
-    <t>ИП КУДИНА ЛАРИСА ГЕННАДЬЕВНА</t>
-  </si>
-  <si>
-    <t>40802810105020000875</t>
-  </si>
-  <si>
-    <t>ШАРАПОВА СВЕТЛАНА НИКОЛАЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810505020000637</t>
-  </si>
-  <si>
-    <t>ПАНАСЮК ОЛЕГ ВАСИЛЬЕВИЧ(ИП)</t>
-  </si>
-  <si>
-    <t>40802810500020000014</t>
-  </si>
-  <si>
-    <t>ШАРАПОВА ВЕРА АЛЕКСАНДРОВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810305020000044</t>
-  </si>
-  <si>
-    <t>АДВОКАТ ВОСТРЯКОВА ТАТЬЯНА ЕВГЕНЬЕВНА</t>
-  </si>
-  <si>
-    <t>40802810505020000051</t>
-  </si>
-  <si>
-    <t>МУТЬЕВА НАТАЛЬЯ СЕРГЕЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810705020000165</t>
-  </si>
-  <si>
-    <t>МУТЬЕВ ВАЛЕРИЙ НИКОЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810005020000166</t>
-  </si>
-  <si>
     <t>Дополнительный офис в г.Нижневартовск</t>
   </si>
   <si>
-    <t>СУЛА МИХАИЛ АФАНАСЬЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810508020000391</t>
-  </si>
-  <si>
     <t>АЛЕНИЧЕВ АНДРЕЙ АНАТОЛЬЕВИЧ (ИП)</t>
   </si>
   <si>
     <t>40802810108020000490</t>
   </si>
   <si>
-    <t>ГЛАВА КРЕСТЬЯНСКОГО (ФЕРМЕРСКОГО) ХОЗЯЙСТВА КУКЛИНОВ АНАТОЛИЙ АЛЕКСАНДРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810308020000517</t>
-  </si>
-  <si>
-    <t>ДОЛЬНИКОВ АЛЕКСАНДР ЛЕОНИДОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810408020000310</t>
-  </si>
-  <si>
     <t>Дополнительный офис в г.Ноябрьск</t>
   </si>
   <si>
+    <t>СИГАЛ ЯКОВ МАРКОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810704020000823</t>
+  </si>
+  <si>
+    <t>ПЕТРЕНКО СЕРГЕЙ НИКОЛАЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810904020000843</t>
+  </si>
+  <si>
+    <t>ИП КАРПЕНКО НАТАЛЬЯ АЛЕКСЕЕВНА</t>
+  </si>
+  <si>
+    <t>40802810704020000881</t>
+  </si>
+  <si>
+    <t>ИМАНАЛИЕВ МАГОМЕД САГИТОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810004020000659</t>
+  </si>
+  <si>
+    <t>МАЛЫШЕВ ВЛАДИМИР НИКОЛАЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810504020000670</t>
+  </si>
+  <si>
+    <t>БЕСЛЕКОЕВ ОЛЕГ ЦАРАЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810304020000676</t>
+  </si>
+  <si>
+    <t>ЗУЕВ ИВАН АНАТОЛЬЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810904020000678</t>
+  </si>
+  <si>
+    <t>ЕНЖИЕВСКИЙ ИВАН ПАВЛОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810504020000683</t>
+  </si>
+  <si>
+    <t>МОРОЗ НИКОЛАЙ ИВАНОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810104020000685</t>
+  </si>
+  <si>
+    <t>ОБОЗНЫЙ ЮРИЙ ВАСИЛЬЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810404020000686</t>
+  </si>
+  <si>
+    <t>ХАНЕВСКАЯ ГАЛИНА ИВАНОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810704020000700</t>
+  </si>
+  <si>
     <t>КУЗЬМЕНКО АЛЕКСАНДР ВИКТОРОВИЧ (ИП)</t>
   </si>
   <si>
     <t>40802810304020000812</t>
   </si>
   <si>
-    <t>СИГАЛ ЯКОВ МАРКОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810704020000823</t>
-  </si>
-  <si>
-    <t>ЖОЛОБАЙЛО ВИКТОР ИВАНОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810004020000837</t>
-  </si>
-  <si>
-    <t>ПЕТРЕНКО СЕРГЕЙ НИКОЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810904020000843</t>
-  </si>
-  <si>
-    <t>ЛИТВИНОВ ЕВГЕНИЙ МИХАЙЛОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810604020000868</t>
-  </si>
-  <si>
-    <t>ХИРАМАГОМЕДОВ ИБРАГИМ АБДУЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810604020000871</t>
-  </si>
-  <si>
-    <t>ИП КАРПЕНКО НАТАЛЬЯ АЛЕКСЕЕВНА</t>
-  </si>
-  <si>
-    <t>40802810704020000881</t>
-  </si>
-  <si>
-    <t>НОВИЧКОВ АЛЕКСЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810704020000593</t>
-  </si>
-  <si>
-    <t>ИМАНАЛИЕВ МАГОМЕД САГИТОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810004020000659</t>
-  </si>
-  <si>
-    <t>МАЛЫШЕВ ВЛАДИМИР НИКОЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810504020000670</t>
-  </si>
-  <si>
-    <t>БЕСЛЕКОЕВ ОЛЕГ ЦАРАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810304020000676</t>
-  </si>
-  <si>
-    <t>ЗУЕВ ИВАН АНАТОЛЬЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810904020000678</t>
-  </si>
-  <si>
-    <t>МОРОЗ НИКОЛАЙ ИВАНОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810104020000685</t>
-  </si>
-  <si>
-    <t>ОБОЗНЫЙ ЮРИЙ ВАСИЛЬЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810404020000686</t>
-  </si>
-  <si>
-    <t>МАМЕДОВ ОЛЕГ РАЗИМОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810204020000747</t>
-  </si>
-  <si>
     <t>Дополнительный офис в г.Тобольск</t>
   </si>
   <si>
+    <t>МИХИТАРОВ ИГОРЬ РОБЕРТОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810102020000111</t>
+  </si>
+  <si>
+    <t>СОЛОВЬЕВА ИРИНА АНАТОЛЬЕВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810302020000157</t>
+  </si>
+  <si>
+    <t>АЙСИН ГАЛИ АБУБАКИРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810602020000190</t>
+  </si>
+  <si>
+    <t>ПАЛЬЯНОВ СЕРГЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810402020000442</t>
+  </si>
+  <si>
+    <t>ТЫРИКОВА УМСУНТЫК ШАХАСЛЯМОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810602020000475</t>
+  </si>
+  <si>
+    <t>ОПАНАСЕНКО АНДРЕЙ ВЛАДИМИРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810702020000498</t>
+  </si>
+  <si>
+    <t>НОВРУЗОВ САХАВЕТ ИСАХАН ОГЛЫ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810602020000527</t>
+  </si>
+  <si>
+    <t>ТАТАРНИКОВА АЛЛА ВИКТОРОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810502020000559</t>
+  </si>
+  <si>
+    <t>ТРУХИНА АЛЕКСАНДРА ВИКТОРОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810902020000696</t>
+  </si>
+  <si>
+    <t>БЕЛЫХ ЮРИЙ АЛЕКСАНДРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810302020000746</t>
+  </si>
+  <si>
+    <t>КОНОВАЛОВ ПЕТР АЛЕКСЕЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810702020000773</t>
+  </si>
+  <si>
+    <t>КУЛАКОВ ВЛАДИМИР ВАСИЛЬЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810902020000777</t>
+  </si>
+  <si>
+    <t>ГАЛКИН АНДРЕЙ АНАТОЛЬЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810202020000778</t>
+  </si>
+  <si>
     <t>МИНИН АЛЕКСЕЙ НИКОЛАЕВИЧ (ИП)</t>
   </si>
   <si>
     <t>40802810502020000779</t>
   </si>
   <si>
-    <t>АГАМУЛИН АЛЕКСЕЙ САЛИМЧАНОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810802020000783</t>
+    <t>КОНОВАЛОВ ЕВГЕНИЙ ПЕТРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810902020000780</t>
   </si>
   <si>
     <t>СЕРГЕЕВА МАРИНА АЛЕКСАНДРОВНА (ИП)</t>
@@ -254,54 +282,6 @@
     <t>40802810902020000887</t>
   </si>
   <si>
-    <t>ПАЛЬЯНОВ СЕРГЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810402020000442</t>
-  </si>
-  <si>
-    <t>ТЫРИКОВА УМСУНТЫК ШАХАСЛЯМОВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810602020000475</t>
-  </si>
-  <si>
-    <t>ОПАНАСЕНКО АНДРЕЙ ВЛАДИМИРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810702020000498</t>
-  </si>
-  <si>
-    <t>НОВРУЗОВ САХАВЕТ ИСАХАН ОГЛЫ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810602020000527</t>
-  </si>
-  <si>
-    <t>ТРУХИНА АЛЕКСАНДРА ВИКТОРОВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810902020000696</t>
-  </si>
-  <si>
-    <t>СОЛОВЬЕВА ИРИНА АНАТОЛЬЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810302020000157</t>
-  </si>
-  <si>
-    <t>АЙСИН ГАЛИ АБУБАКИРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810602020000190</t>
-  </si>
-  <si>
-    <t>КУЛАКОВ ВЛАДИМИР ВАСИЛЬЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810902020000777</t>
-  </si>
-  <si>
     <t>Дополнительный офис в п.Излучинск</t>
   </si>
   <si>
@@ -311,6 +291,12 @@
     <t>40802810703020000293</t>
   </si>
   <si>
+    <t>ЛОСКУТОВА ИРИНА ВЛАДИМИРОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810403020000548</t>
+  </si>
+  <si>
     <t>ТОКАРЕВА МАРИНА ПЕТРОВНА (ИП)</t>
   </si>
   <si>
@@ -332,6 +318,72 @@
     <t>Тюменский филиал АО КБ "АГРОПРОMКРЕДИТ"</t>
   </si>
   <si>
+    <t>ГАГАРИНА ИРИНА ГЕННАДЬЕВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810500020000852</t>
+  </si>
+  <si>
+    <t>САТТАРОВ НУРУЛЛА ГАРИФУЛЛОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810800020000866</t>
+  </si>
+  <si>
+    <t>ИП ИВАНОВ АЛЕКСАНДР ЛЕОНИДОВИЧ</t>
+  </si>
+  <si>
+    <t>40802810600020000888</t>
+  </si>
+  <si>
+    <t>АРБИТРАЖНЫЙ УПРАВЛЯЮЩИЙ ДЕМИДОВИЧ ВАЛЕНТИН ЛЬВОВИЧ</t>
+  </si>
+  <si>
+    <t>40802810500020001000</t>
+  </si>
+  <si>
+    <t>ГУБИН ОЛЕГ НИКОЛАЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810900020000724</t>
+  </si>
+  <si>
+    <t>МЕРЗЛЯКОВ ИВАН ИВАНОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810300020000735</t>
+  </si>
+  <si>
+    <t>ГРИНЬКО ОЛЕГ СЕРГЕЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810600020000752</t>
+  </si>
+  <si>
+    <t>ГРИГОРЬЕВ ВЛАДИМИР ВЛАДИМИРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810900020000766</t>
+  </si>
+  <si>
+    <t>ТРУБИЦИН СЕРГЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810200020000770</t>
+  </si>
+  <si>
+    <t>ДРУГАНОВ АЛЕКСАНДР МИХАЙЛОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810500020000771</t>
+  </si>
+  <si>
+    <t>АНИСИМОВ АЛЕКСАНДР ФАЙЗИЛЯКАРАМОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810800020000772</t>
+  </si>
+  <si>
     <t>НЕЧАЕВ ЮРИЙ ГЕОРГИЕВИЧ (ИП)</t>
   </si>
   <si>
@@ -344,12 +396,6 @@
     <t>40802810200020000796</t>
   </si>
   <si>
-    <t>КЛИМЕНКО НАТАЛЬЯ ВИТАЛЬЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810500020000797</t>
-  </si>
-  <si>
     <t>ШАБАНОВА ЮЛИЯ ВИКТОРОВНА (ИП)</t>
   </si>
   <si>
@@ -368,40 +414,70 @@
     <t>40802810600020000833</t>
   </si>
   <si>
-    <t>ГАГАРИНА ИРИНА ГЕННАДЬЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810500020000852</t>
-  </si>
-  <si>
-    <t>САУЛЬСКИЙ ВИКТОР НИКОЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810200020000864</t>
-  </si>
-  <si>
-    <t>САТТАРОВ НУРУЛЛА ГАРИФУЛЛОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810800020000866</t>
-  </si>
-  <si>
-    <t>ИП ИВАНОВ АЛЕКСАНДР ЛЕОНИДОВИЧ</t>
-  </si>
-  <si>
-    <t>40802810600020000888</t>
-  </si>
-  <si>
-    <t>ИП Синютин Виктор Александрович</t>
-  </si>
-  <si>
-    <t>40802810200020000893</t>
-  </si>
-  <si>
-    <t>ШАНГИНА ТАТЬЯНА ВИТАЛЬЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810200020000615</t>
+    <t>ПРОКОПЧУК ОЛЕГ БОРИСОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810600020000846</t>
+  </si>
+  <si>
+    <t>ЛОГИНОВ СЕРГЕЙ ВЛАДИМИРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810200020000314</t>
+  </si>
+  <si>
+    <t>МАКСИМОВ ВЛАДИМИР ВЛАДИМИРОВИЧ(ИП)</t>
+  </si>
+  <si>
+    <t>40802810400020000460</t>
+  </si>
+  <si>
+    <t>ЯСНЕВА ЕЛЕНА ВЛАДИМИРОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810700020000487</t>
+  </si>
+  <si>
+    <t>ПУШНИКОВ ВИКТОР СТЕПАНОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810700020000500</t>
+  </si>
+  <si>
+    <t>КАЗАКОВА СВЕТЛАНА ВЛАДИСЛАВОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810300020000502</t>
+  </si>
+  <si>
+    <t>ВАХРУШЕВ АЛЕКСАНДР НИКОЛАЕВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810100020000511</t>
+  </si>
+  <si>
+    <t>БЕРЕЗУТСКИЙ АНАТОЛИЙ ПЕТРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810800020000552</t>
+  </si>
+  <si>
+    <t>ЛАЗАРЕВА СВЕТЛАНА ВЛАДИМИРОВНА (ИП)</t>
+  </si>
+  <si>
+    <t>40802810100020000566</t>
+  </si>
+  <si>
+    <t>ИВАЩЕНКО ЭДУАРД ВИКТОРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810100020000582</t>
+  </si>
+  <si>
+    <t>ИЗОСИМОВ АНДРЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
+  </si>
+  <si>
+    <t>40802810700020000584</t>
   </si>
   <si>
     <t>ГРИГОРЬЕВА НИНА АЛЕКСЕЕВНА (ИП)</t>
@@ -414,114 +490,6 @@
   </si>
   <si>
     <t>40802810800020000633</t>
-  </si>
-  <si>
-    <t>БАЯНДИНА НАТАЛЬЯ ДМИТРИЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810700020000665</t>
-  </si>
-  <si>
-    <t>ГУБИН ОЛЕГ НИКОЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810900020000724</t>
-  </si>
-  <si>
-    <t>МЕРЗЛЯКОВ ИВАН ИВАНОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810300020000735</t>
-  </si>
-  <si>
-    <t>ГРИГОРЬЕВ ВЛАДИМИР ВЛАДИМИРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810900020000766</t>
-  </si>
-  <si>
-    <t>ТРУБИЦИН СЕРГЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810200020000770</t>
-  </si>
-  <si>
-    <t>ДРУГАНОВ АЛЕКСАНДР МИХАЙЛОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810500020000771</t>
-  </si>
-  <si>
-    <t>АНИСИМОВ АЛЕКСАНДР ФАЙЗИЛЯКАРАМОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810800020000772</t>
-  </si>
-  <si>
-    <t>СТЕПАНОВА НАТАЛЬЯ ГЕННАДЬЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810800020000060</t>
-  </si>
-  <si>
-    <t>ЛОГИНОВ СЕРГЕЙ ВЛАДИМИРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810200020000314</t>
-  </si>
-  <si>
-    <t>БАЙДАКОВА НАТАЛЬЯ ПАВЛОВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810600020000396</t>
-  </si>
-  <si>
-    <t>МАКСИМОВ ВЛАДИМИР ВЛАДИМИРОВИЧ(ИП)</t>
-  </si>
-  <si>
-    <t>40802810400020000460</t>
-  </si>
-  <si>
-    <t>МУРАШОВА НАТАЛЬЯ ДМИТРИЕВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810700020000474</t>
-  </si>
-  <si>
-    <t>ЯСНЕВА ЕЛЕНА ВЛАДИМИРОВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810700020000487</t>
-  </si>
-  <si>
-    <t>ВАХРУШЕВ АЛЕКСАНДР НИКОЛАЕВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810100020000511</t>
-  </si>
-  <si>
-    <t>БЕРЕЗУТСКИЙ АНАТОЛИЙ ПЕТРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810800020000552</t>
-  </si>
-  <si>
-    <t>ЛАЗАРЕВА СВЕТЛАНА ВЛАДИМИРОВНА (ИП)</t>
-  </si>
-  <si>
-    <t>40802810100020000566</t>
-  </si>
-  <si>
-    <t>ИВАЩЕНКО ЭДУАРД ВИКТОРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810100020000582</t>
-  </si>
-  <si>
-    <t>ИЗОСИМОВ АНДРЕЙ АЛЕКСАНДРОВИЧ (ИП)</t>
-  </si>
-  <si>
-    <t>40802810700020000584</t>
   </si>
 </sst>
 </file>
@@ -582,9 +550,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -600,39 +565,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -667,7 +632,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -711,155 +676,179 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="94" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
@@ -890,7 +879,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="3">
-        <v>475</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -904,7 +893,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +907,7 @@
         <v>10</v>
       </c>
       <c r="D4" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -932,7 +921,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="3">
-        <v>50</v>
+        <v>950</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -946,7 +935,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="3">
-        <v>650</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -960,7 +949,7 @@
         <v>16</v>
       </c>
       <c r="D7" s="3">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -974,7 +963,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="3">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -988,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>50</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1002,46 +991,46 @@
         <v>22</v>
       </c>
       <c r="D10" s="3">
-        <v>1350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3">
-        <v>350</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D12" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="3">
         <v>50</v>
@@ -1049,13 +1038,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D14" s="3">
         <v>50</v>
@@ -1063,111 +1052,111 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D15" s="3">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D16" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D17" s="3">
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D18" s="3">
-        <v>1050</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D19" s="3">
-        <v>1050</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D20" s="3">
-        <v>450</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D21" s="3">
-        <v>450</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D22" s="3">
         <v>50</v>
@@ -1175,41 +1164,41 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="D23" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="D25" s="3">
         <v>50</v>
@@ -1217,245 +1206,245 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="D26" s="3">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="D27" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3">
-        <v>100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="D29" s="3">
-        <v>100</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D30" s="3">
-        <v>100</v>
+        <v>450</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D31" s="3">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D32" s="3">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D33" s="3">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D34" s="3">
-        <v>200</v>
+        <v>550</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D35" s="3">
-        <v>50</v>
+        <v>425</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D36" s="3">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D37" s="3">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D38" s="3">
-        <v>50</v>
+        <v>550</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D39" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D40" s="3">
-        <v>2100</v>
+        <v>550</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D41" s="3">
-        <v>125</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D42" s="3">
-        <v>750</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>78</v>
@@ -1464,12 +1453,12 @@
         <v>79</v>
       </c>
       <c r="D43" s="3">
-        <v>450</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>80</v>
@@ -1478,88 +1467,88 @@
         <v>81</v>
       </c>
       <c r="D44" s="3">
-        <v>275</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D45" s="3">
-        <v>150</v>
+        <v>550</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D46" s="3">
-        <v>950</v>
+        <v>550</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="3">
-        <v>50</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D48" s="3">
-        <v>150</v>
+        <v>250</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D49" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="D50" s="3">
         <v>100</v>
@@ -1567,27 +1556,27 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D51" s="3">
-        <v>275</v>
+        <v>350</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D52" s="3">
         <v>150</v>
@@ -1595,97 +1584,97 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D53" s="3">
         <v>100</v>
-      </c>
-      <c r="D53" s="3">
-        <v>250</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B54" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="D54" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D55" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D56" s="3">
-        <v>1575</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D57" s="3">
-        <v>625</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D58" s="3">
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
@@ -1693,27 +1682,27 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D60" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D61" s="3">
         <v>50</v>
@@ -1721,41 +1710,41 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D62" s="3">
-        <v>225</v>
+        <v>50</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D63" s="3">
-        <v>900</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D64" s="3">
         <v>100</v>
@@ -1763,13 +1752,13 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D65" s="3">
         <v>50</v>
@@ -1777,13 +1766,13 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D66" s="3">
         <v>50</v>
@@ -1791,13 +1780,13 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D67" s="3">
         <v>400</v>
@@ -1805,139 +1794,139 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D68" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D69" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D70" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D71" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D72" s="3">
-        <v>50</v>
+        <v>375</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D73" s="3">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D74" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D75" s="3">
-        <v>50</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D76" s="3">
-        <v>125</v>
+        <v>25</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D77" s="3">
         <v>50</v>
@@ -1945,118 +1934,100 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D78" s="3">
-        <v>800</v>
+        <v>50</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" s="3">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D80" s="3">
-        <v>50</v>
+        <v>125</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D81" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D82" s="3">
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D83" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D84" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D85" s="3">
-        <v>275</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>